--- a/publipostage/03deam493/liste_essais_cliniques_identifies_03deam493.xlsx
+++ b/publipostage/03deam493/liste_essais_cliniques_identifies_03deam493.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,32 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT01360242</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Patients Presenting With Acute STEMI Treated With Primary PCI : Comparison of the Impact of the MIMI Approach With a Conventional Strategy of Immediate Stenting</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>MIMI</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" t="b">
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -525,32 +535,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT02735005</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Epidemiology of Aging of People With Disabilities - Gerontological Sector "Rumilly-Annecy-Saint-Julien-Pays de Gex-Bellegarde" : Description of the Population in an Attempt to Identify Ways to Implement to Meet the Needs in Aging</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>PHV</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -562,32 +577,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT04089397</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Randomized Open-label Trial Evaluating Light Therapy on Sleep Quality in Dialysis Patients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>LUMIDIAL</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -599,32 +619,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT03493750</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Oral Evaluation by the Nurses From the Office of Access to Healthcare ("PASS") for Vulnerable People as a Vector for the Detection of Oral Diseases to Improve Access to the Appropriate Healthcare Branch - PASSDENT Study</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>PASSDENT</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -636,36 +661,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT05154383</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>2021-004573-32</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Effect of High-Dose Quadrivalent Influenza Vaccine (Efluelda®) Versus Standard-Dose (QIV-SD), in Subjects 65 Years of Age and Older on Innate Immunity, Including Gene Expression</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>INFLUOMICS</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
       <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
         <v>1</v>
       </c>
-      <c r="I6" t="b">
+      <c r="J6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -675,36 +705,41 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>2018-001105-85</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>A multicenter phase II study evaluating denosumab (XGEVA®) in combination with nivolumab (OPDIVO®) as second-line therapy for patients with stage IV non-small–cell lung cancer (squamous and non-squamous) with bone metastases 
  Etude de phase II multicentrique de l’évaluation du denosumab (XGEVA®) associé au nivolumab (OPDIVO®) en 2ème ligne de traitement chez des patients présentant un cancer bronchique non à petites cellules (épidermoïde et non épidermoïde) de stade IV, porteurs de métastases osseuses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>DENIVOS 
  DENIVOS</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/03deam493/liste_essais_cliniques_identifies_03deam493.xlsx
+++ b/publipostage/03deam493/liste_essais_cliniques_identifies_03deam493.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +578,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,6 +625,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,6 +672,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -698,6 +723,11 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -742,6 +772,7 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
